--- a/medicine/Pharmacie/1958_en_santé_et_médecine/1958_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1958_en_santé_et_médecine/1958_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1958_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1958_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1958 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1958_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1958_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>21 novembre : l’équipe du docteur Georges Mathé réussit une greffe de la moelle osseuse sur cinq scientifiques yougoslaves contaminés accidentellement par des radiations.
 30 décembre : ordonnance portant création des Centre hospitalier universitaire en France.
 Le professeur d'immuno-hématologie français Jean Dausset découvre le système HLA (système génétique des groupes tissulaires) pour lequel il aura le prix Nobel de physiologie ou médecine en 1980.
-Albert Hofmann isole la psilocybine, principe actif de certains champignons hallucinogènes[1].
+Albert Hofmann isole la psilocybine, principe actif de certains champignons hallucinogènes.
 Matthew Stanley Meselson et Franklin W. Stahl prouvent que la réplication de l'ADN est semi-conservative dans l'expérience de Meselson et Stahl.
-Commence au Viet-Nam une épidémie de poliomyélite, qui durera jusqu'en 1960. En 1959, il y a 52,16 cas pour 100 000 habitants[2].</t>
+Commence au Viet-Nam une épidémie de poliomyélite, qui durera jusqu'en 1960. En 1959, il y a 52,16 cas pour 100 000 habitants.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1958_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1958_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1958_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1958_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>18 février : Ferdinand Piéchaud (né en 1890), médecin et professeur français s'étant illustré dans la lutte contre la tuberculose.</t>
         </is>
